--- a/AltiumFiles/Varactor_TxCap_new/Project Outputs for VaractorTline144Mhz/BoardStackup.xlsx
+++ b/AltiumFiles/Varactor_TxCap_new/Project Outputs for VaractorTline144Mhz/BoardStackup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\GitHub\Capstone_Rohde-Schwarz_Team13\AltiumFiles\Varactor_TxCap_new\Project Outputs for VaractorTline144Mhz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4559CB79-9493-4CA5-8F75-D81351A2DA3A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F9AB732-2C9D-4359-9E82-17AE0892FBE9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="915" yWindow="-120" windowWidth="37605" windowHeight="16440"/>
   </bookViews>
@@ -276,7 +276,7 @@
         <xdr:cNvPr id="1025" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B78FD040-7FA4-4D6B-B9C0-9AAD9C2480D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C7D825-E661-4931-872F-BBD00D701679}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
